--- a/s_electric/se0008_meo_pos_pp/se0008_meo_pos_pp(tbc).xlsx
+++ b/s_electric/se0008_meo_pos_pp/se0008_meo_pos_pp(tbc).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YandexDisk\schemes\s_electric\se0003_valve220_pnp24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\schemes\s_electric\se0008_meo_pos_pp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BDAC4C-79CE-4BEA-B939-C36EF502AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="9" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="adjust" sheetId="11" r:id="rId9"/>
     <sheet name="install" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -676,13 +675,223 @@
   </si>
   <si>
     <t>Подходит без доработок для клапанов Термобрест. При заказе клапанов Термобрест необходимо обязательно указывать тип датчика положение PNP</t>
+  </si>
+  <si>
+    <t>AmAi</t>
+  </si>
+  <si>
+    <t>Ai+</t>
+  </si>
+  <si>
+    <t>Ai-</t>
+  </si>
+  <si>
+    <t>TmAi+</t>
+  </si>
+  <si>
+    <t>TmAi-</t>
+  </si>
+  <si>
+    <t>0vAi</t>
+  </si>
+  <si>
+    <t>24vAi</t>
+  </si>
+  <si>
+    <t>XTcp1</t>
+  </si>
+  <si>
+    <t>Tcp11</t>
+  </si>
+  <si>
+    <t>Tcp12</t>
+  </si>
+  <si>
+    <t>Tcp13</t>
+  </si>
+  <si>
+    <t>AmDi</t>
+  </si>
+  <si>
+    <t>DiOp</t>
+  </si>
+  <si>
+    <t>DiCl</t>
+  </si>
+  <si>
+    <t>DiCom</t>
+  </si>
+  <si>
+    <t>TmDi1</t>
+  </si>
+  <si>
+    <t>TmDi2</t>
+  </si>
+  <si>
+    <t>TmDiCom</t>
+  </si>
+  <si>
+    <t>24vDi</t>
+  </si>
+  <si>
+    <t>0vDi</t>
+  </si>
+  <si>
+    <t>Tkl0v</t>
+  </si>
+  <si>
+    <t>Tkl24v</t>
+  </si>
+  <si>
+    <t>KLcp1</t>
+  </si>
+  <si>
+    <t>KLcp2</t>
+  </si>
+  <si>
+    <t>TkliL</t>
+  </si>
+  <si>
+    <t>TkliN</t>
+  </si>
+  <si>
+    <t>Wcp4</t>
+  </si>
+  <si>
+    <t>Ncp</t>
+  </si>
+  <si>
+    <t>Wcp5</t>
+  </si>
+  <si>
+    <t>XTcp2</t>
+  </si>
+  <si>
+    <t>Tcp21</t>
+  </si>
+  <si>
+    <t>Tcp22</t>
+  </si>
+  <si>
+    <t>Tcp23</t>
+  </si>
+  <si>
+    <t>AmDo</t>
+  </si>
+  <si>
+    <t>DoCom</t>
+  </si>
+  <si>
+    <t>DoOp</t>
+  </si>
+  <si>
+    <t>DoCl</t>
+  </si>
+  <si>
+    <t>TmDoCom</t>
+  </si>
+  <si>
+    <t>TmDo1</t>
+  </si>
+  <si>
+    <t>TmDo2</t>
+  </si>
+  <si>
+    <t>24vDo</t>
+  </si>
+  <si>
+    <t>Wcp6</t>
+  </si>
+  <si>
+    <t>Wcp7</t>
+  </si>
+  <si>
+    <t>HLcp1</t>
+  </si>
+  <si>
+    <t>HLcp2</t>
+  </si>
+  <si>
+    <t>0vDo</t>
+  </si>
+  <si>
+    <t>XTcp3</t>
+  </si>
+  <si>
+    <t>Tcp31</t>
+  </si>
+  <si>
+    <t>Tcp32</t>
+  </si>
+  <si>
+    <t>Tcp33</t>
+  </si>
+  <si>
+    <t>L1?</t>
+  </si>
+  <si>
+    <t>Lt1?</t>
+  </si>
+  <si>
+    <t>Lg1?</t>
+  </si>
+  <si>
+    <t>VSpp</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>XTpp1</t>
+  </si>
+  <si>
+    <t>Tpp11</t>
+  </si>
+  <si>
+    <t>Tpp12</t>
+  </si>
+  <si>
+    <t>Tpp13</t>
+  </si>
+  <si>
+    <t>Lpp1</t>
+  </si>
+  <si>
+    <t>Npp1</t>
+  </si>
+  <si>
+    <t>Wpp1</t>
+  </si>
+  <si>
+    <t>Wpp2</t>
+  </si>
+  <si>
+    <t>XTpp2</t>
+  </si>
+  <si>
+    <t>Tpp21</t>
+  </si>
+  <si>
+    <t>Tpp22</t>
+  </si>
+  <si>
+    <t>Tpp23</t>
+  </si>
+  <si>
+    <t>L2?</t>
+  </si>
+  <si>
+    <t>Lt2?</t>
+  </si>
+  <si>
+    <t>Lg2?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +945,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -813,7 +1029,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -858,13 +1074,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{20AA7729-258B-41FC-8E7E-D13670C2B469}"/>
-    <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{8E89F8C6-5DD2-4FAA-B08E-31A50C9EDFA3}"/>
-    <cellStyle name="Обычный 3" xfId="3" xr:uid="{7FA9E0CB-F4A4-4094-A5E5-8CF49BB6BDC0}"/>
-    <cellStyle name="Обычный 3 2" xfId="4" xr:uid="{EA6976E2-F4C1-493B-A413-78490E89A8D7}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
+    <cellStyle name="Обычный 3 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1141,20 +1358,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29605B0B-04CA-4580-B6C7-F0FA52CD1746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="168.08984375" customWidth="1"/>
-    <col min="2" max="2" width="72.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -1165,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81473D52-F51C-4AC8-A68B-9877F875E9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1176,18 +1393,18 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="83.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1207,7 +1424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
@@ -1228,7 +1445,7 @@
         <v>0.56500000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -1246,7 +1463,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
@@ -1264,7 +1481,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -1285,7 +1502,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1304,7 +1521,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>59</v>
       </c>
@@ -1331,65 +1548,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFBAF01-7C78-423B-892B-26425A652887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="168.08984375" customWidth="1"/>
-    <col min="2" max="2" width="72.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="168.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="8" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B3E98C-D3D4-478C-A09C-5309B10332CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>146</v>
       </c>
@@ -1409,7 +1626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -1435,20 +1652,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -1456,389 +1673,700 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="18" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="18" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="D25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="18" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="D28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="D30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="D31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="D32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="D33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="D34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="D36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="D37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="D39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="18" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="D41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="18" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="D42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="D43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="D45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="18" t="s">
         <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD4E42D-16FF-426E-B426-9BBC7D1856D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -1858,7 +2386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -1872,7 +2400,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1886,7 +2414,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -1900,7 +2428,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -1914,7 +2442,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -1928,7 +2456,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -1942,7 +2470,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -1956,7 +2484,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -1970,7 +2498,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -1984,7 +2512,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -1998,7 +2526,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -2012,7 +2540,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -2026,7 +2554,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -2040,7 +2568,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -2054,7 +2582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -2068,7 +2596,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -2082,7 +2610,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -2096,7 +2624,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -2110,7 +2638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2124,7 +2652,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -2138,7 +2666,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -2152,7 +2680,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -2166,7 +2694,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -2180,7 +2708,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -2194,7 +2722,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -2208,7 +2736,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>168</v>
       </c>
@@ -2222,7 +2750,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -2236,7 +2764,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -2256,23 +2784,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE3F979-9382-4B2C-8F81-493CAEDEB40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>178</v>
       </c>
@@ -2301,7 +2829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -2330,7 +2858,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -2365,23 +2893,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D760CD9-340C-4C3B-B255-A7A257DC5FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2406,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -2420,22 +2947,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADF351E-8FE8-49E5-83C0-FBAF576A7251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2449,7 +2976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2460,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2471,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +3009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2493,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2504,7 +3031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +3045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2532,7 +3059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -2546,7 +3073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2557,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2568,7 +3095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +3106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2590,7 +3117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -2610,7 +3137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B15D3B-F714-4700-8D15-923F457FD010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2621,18 +3148,18 @@
       <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="13"/>
+    <col min="1" max="1" width="13.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -2652,7 +3179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>153</v>
       </c>
@@ -2673,7 +3200,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>31</v>
       </c>
@@ -2694,7 +3221,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>155</v>
       </c>
@@ -2715,7 +3242,7 @@
         <v>0.12960000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>158</v>
       </c>
@@ -2736,7 +3263,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -2757,7 +3284,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
